--- a/kindle/code/settings.xlsx
+++ b/kindle/code/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>kindle-categories</t>
   </si>
@@ -31,7 +31,13 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Biographies &amp; Memoirs</t>
+  </si>
+  <si>
     <t>Web-Link</t>
+  </si>
+  <si>
+    <t>Business &amp; Money</t>
   </si>
   <si>
     <t>Author</t>
@@ -87,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -121,14 +127,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,24 +180,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +227,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,38 +243,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,50 +266,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +280,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,13 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,85 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,15 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,7 +493,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +518,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,19 +571,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,130 +592,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1050,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1078,106 +1084,110 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/kindle/code/settings.xlsx
+++ b/kindle/code/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>kindle-categories</t>
   </si>
@@ -43,49 +43,133 @@
     <t>Author</t>
   </si>
   <si>
+    <t>Children's eBooks</t>
+  </si>
+  <si>
     <t>Ratings</t>
   </si>
   <si>
+    <t>Comics, Manga &amp; Graphic Novels</t>
+  </si>
+  <si>
     <t>Stars</t>
   </si>
   <si>
+    <t>Computers &amp; Technology</t>
+  </si>
+  <si>
     <t>Page numbers source ISBN</t>
   </si>
   <si>
+    <t>Cookbooks, Food &amp; Wine</t>
+  </si>
+  <si>
     <t>ASIN</t>
   </si>
   <si>
+    <t>Crafts, Hobbies &amp; Home</t>
+  </si>
+  <si>
     <t>Publisher</t>
   </si>
   <si>
+    <t>Education &amp; Teaching</t>
+  </si>
+  <si>
     <t>Publication date</t>
   </si>
   <si>
+    <t>Engineering &amp; Transportation</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
+    <t>Foreign Languages</t>
+  </si>
+  <si>
     <t>File size</t>
   </si>
   <si>
+    <t>Health, Fitness &amp; Dieting</t>
+  </si>
+  <si>
     <t>Text-to-Speech</t>
   </si>
   <si>
+    <t>History</t>
+  </si>
+  <si>
     <t>Screen Reader</t>
   </si>
   <si>
+    <t>Humor &amp; Entertainment</t>
+  </si>
+  <si>
     <t>Enhanced typesetting</t>
   </si>
   <si>
+    <t>Law</t>
+  </si>
+  <si>
     <t>X-Ray</t>
   </si>
   <si>
+    <t>LGBTQ+ eBooks</t>
+  </si>
+  <si>
     <t>Word Wise</t>
   </si>
   <si>
+    <t>Literature &amp; Fiction</t>
+  </si>
+  <si>
     <t>Print length</t>
   </si>
   <si>
+    <t>Medical eBooks</t>
+  </si>
+  <si>
     <t>Best Sellers Rank</t>
+  </si>
+  <si>
+    <t>Mystery, Thriller &amp; Suspense</t>
+  </si>
+  <si>
+    <t>Nonfiction</t>
+  </si>
+  <si>
+    <t>Parenting &amp; Relationships</t>
+  </si>
+  <si>
+    <t>Politics &amp; Social Sciences</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Religion &amp; Spirituality</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Science &amp; Math</t>
+  </si>
+  <si>
+    <t>Science Fiction &amp; Fantasy</t>
+  </si>
+  <si>
+    <t>Self-Help</t>
+  </si>
+  <si>
+    <t>Sports &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Teen &amp; Young Adult</t>
+  </si>
+  <si>
+    <t>Travel</t>
   </si>
 </sst>
 </file>
@@ -93,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -127,6 +211,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -134,55 +240,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +280,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +326,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -249,23 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +364,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,85 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,67 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,30 +555,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,6 +592,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -547,16 +622,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,7 +658,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,130 +676,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1101,130 +1185,189 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
